--- a/docs/ST3a/ST3a_08.08.24_output.xlsx
+++ b/docs/ST3a/ST3a_08.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,753 +505,895 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731318460.4925067</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731318460.889225</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731318460.4925067.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731318460.889225.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>283.14</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>283.61</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.4700000000000273</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731318460.9041564</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731318462.595798</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731318460.9041564.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731318462.595798.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>283.61</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>284.35</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.7400000000000091</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731318462.714145</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731318469.570641</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731318462.714145.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731318469.570641.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>284.49</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>283.15</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-1.340000000000032</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731318469.5855742</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731318471.1692126</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731318469.5855742.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731318471.1692126.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>283.15</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>283.61</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.4600000000000364</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731318471.184172</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731318471.184172.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731318471.184172.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>283.61</v>
       </c>
-      <c r="J7" t="n">
-        <v>283.61</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
+      <c r="L7" t="n">
+        <v>282.85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.7599999999999909</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731318474.8691</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731318475.5251126</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731318474.8691.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731318475.5251126.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>130.29</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>130.27</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.01999999999998181</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731318480.262621</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731318480.747933</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731318480.262621.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731318480.747933.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>130.34</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>130.08</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.2599999999999909</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731318485.7405014</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731318485.7405014.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731318485.7405014.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>129.58</v>
       </c>
-      <c r="J10" t="n">
-        <v>129.58</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
+      <c r="L10" t="n">
+        <v>129.13</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.4500000000000171</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731318490.4150133</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731318490.8098805</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731318490.4150133.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731318490.8098805.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6521</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6514</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>7</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731318490.8238432</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731318491.3567603</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731318490.8238432.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731318491.3567603.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6514</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6536</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>22</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731318496.8512878</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731318497.125258</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731318496.8512878.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731318497.125258.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6480.5</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6470.5</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>10</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731318497.1402202</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731318497.1402202.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731318497.1402202.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6470.5</v>
       </c>
-      <c r="J14" t="n">
-        <v>6470.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
+      <c r="L14" t="n">
+        <v>6462.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-8</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731318500.510188</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731318501.516594</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731318500.510188.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731318501.516594.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>508.75</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>508.7</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.05000000000001137</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731318501.5305564</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731318503.6728923</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731318501.5305564.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731318503.6728923.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>508.7</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>511.4</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-2.699999999999989</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731318507.2685997</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731318509.9350533</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731318507.2685997.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731318509.9350533.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>511.05</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>511.05</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1244,3007 +1401,3574 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731318512.4229865</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731318512.4229865.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731318512.4229865.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>511</v>
       </c>
-      <c r="J18" t="n">
-        <v>511</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
+      <c r="L18" t="n">
+        <v>510.2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.8000000000000114</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731318515.3663123</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731318523.2124414</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731318515.3663123.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731318523.2124414.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>228.86</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>228.38</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.4800000000000182</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731318523.227231</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731318525.7999568</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731318523.227231.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731318525.7999568.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>228.38</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>228.64</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.2599999999999909</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731318527.3159273</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731318527.780312</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731318527.3159273.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731318527.780312.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>1014.2</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>1015</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731318527.8483152</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731318528.5693705</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731318527.8483152.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731318528.5693705.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>1016.2</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>1014.8</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>1.400000000000091</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731318530.8152032</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731318534.951977</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731318530.8152032.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731318534.951977.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1027.2</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1026</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-1.200000000000045</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731318542.4300587</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731318553.6756766</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/CNY1731318542.4300587.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/CNY1731318553.6756766.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>11.887</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>11.945</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.05799999999999983</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731318553.6906328</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731318554.0737321</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/CNY1731318553.6906328.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/CNY1731318554.0737321.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>11.945</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>11.949</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.003999999999999559</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731318554.08868</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731318554.08868.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731318554.08868.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>11.949</v>
       </c>
-      <c r="J26" t="n">
-        <v>11.949</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
+      <c r="L26" t="n">
+        <v>11.969</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.01999999999999957</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731318556.3723779</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731318557.995335</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731318556.3723779.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731318557.995335.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>124.9</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>124.76</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.1400000000000006</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731318561.0311804</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731318562.555581</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731318561.0311804.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731318562.555581.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>124.76</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>124.46</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.3000000000000114</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731318569.3365097</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731318570.8055265</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731318569.3365097.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731318570.8055265.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>161.56</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>161.5</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731318575.038059</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731318579.3819835</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731318575.038059.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731318579.3819835.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>162.28</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>160.46</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-1.819999999999993</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-1.12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731318579.3959465</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731318579.3959465.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731318579.3959465.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>160.46</v>
       </c>
-      <c r="J31" t="n">
-        <v>160.46</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
+      <c r="L31" t="n">
+        <v>160.76</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.2999999999999829</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731318584.6149194</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731318588.8712869</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731318584.6149194.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731318588.8712869.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>49.475</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>49.39</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.08500000000000085</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731318593.6547077</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731318593.6547077.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731318593.6547077.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>49.43</v>
       </c>
-      <c r="J33" t="n">
-        <v>49.43</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
+      <c r="L33" t="n">
+        <v>49.16</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.2700000000000031</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.5499999999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731318598.639462</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731318599.8575418</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731318598.639462.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731318599.8575418.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1391.8</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1403.4</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>11.60000000000014</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.83</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731318600.3157697</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731318602.5153458</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731318600.3157697.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731318602.5153458.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1402</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1394.4</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-7.599999999999909</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.54</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731318602.530279</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731318603.0526888</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731318602.530279.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731318603.0526888.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1394.4</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1393.4</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731318609.4842486</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731318613.6768005</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731318609.4842486.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731318613.6768005.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>61.25</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>61.39</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.1400000000000006</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731318613.69176</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731318614.177804</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731318613.69176.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731318614.177804.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>61.39</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>61.29</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.1000000000000014</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731318614.193761</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731318616.1116498</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731318614.193761.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731318616.1116498.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>61.29</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>61.09</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.1999999999999957</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731318616.1266115</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731318616.856314</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731318616.1266115.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731318616.856314.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>61.09</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>60.89</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731318624.0444946</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731318624.3657956</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731318624.0444946.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731318624.3657956.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>98.48999999999999</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>98.67</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731318624.3807292</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731318624.8571372</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731318624.3807292.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731318624.8571372.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>98.67</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>98.27</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.4000000000000057</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731318626.225281</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731318626.7158513</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731318626.225281.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731318626.7158513.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>98.5</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>98.56</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731318626.7659328</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731318627.5864005</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731318626.7659328.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731318627.5864005.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>98.59</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>98.5</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731318627.7205687</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731318629.072182</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731318627.7205687.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731318629.072182.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>98.42</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>98.44</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.01999999999999602</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731318629.1230483</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731318629.834508</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731318629.1230483.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731318629.834508.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>98.44</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>98.26000000000001</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.1799999999999926</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731318629.9063761</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731318635.4449368</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731318629.9063761.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731318635.4449368.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>98.26000000000001</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>97.97</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.2900000000000063</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731318637.9282022</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731318637.9282022.png</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731318637.9282022.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>97.84999999999999</v>
       </c>
-      <c r="J48" t="n">
-        <v>97.84999999999999</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
+      <c r="L48" t="n">
+        <v>97.66</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.1899999999999977</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731318639.5862596</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731318640.7472289</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/SELG1731318639.5862596.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/SELG1731318640.7472289.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>56.21</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>56.27</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731318640.7612176</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731318641.486844</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/SELG1731318640.7612176.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/SELG1731318641.486844.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>56.27</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>56.12</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.1500000000000057</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731318641.5018044</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731318643.0156279</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/SELG1731318641.5018044.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/SELG1731318643.0156279.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>56.12</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>56.05</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.07000000000000028</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731318643.0295932</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731318643.5520995</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/SELG1731318643.0295932.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/SELG1731318643.5520995.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>56.05</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>55.98</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731318643.621877</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731318644.3131378</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/SELG1731318643.621877.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/SELG1731318644.3131378.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>55.96</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>55.93</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731318644.5408876</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731318645.5197854</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/SELG1731318644.5408876.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/SELG1731318645.5197854.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>55.94</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>55.75</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731318646.3096948</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731318646.3096948.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731318646.3096948.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>55.86</v>
       </c>
-      <c r="J55" t="n">
-        <v>55.86</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
+      <c r="L55" t="n">
+        <v>55.72</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.1400000000000006</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731318651.8702416</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731318653.016486</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731318651.8702416.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731318653.016486.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>149.24</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>151.9</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>2.659999999999997</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1.78</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731318654.2952986</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731318656.936393</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731318654.2952986.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731318656.936393.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>153.98</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>156.62</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>2.640000000000015</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1.71</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731318662.6695814</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731318662.6695814.png</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731318662.6695814.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>153.9</v>
       </c>
-      <c r="J58" t="n">
-        <v>153.9</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
+      <c r="L58" t="n">
+        <v>152.74</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-1.159999999999997</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.75</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731318664.2301307</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731318666.583092</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731318664.2301307.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731318666.583092.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>20.38</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>20.435</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.05499999999999972</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731318666.824914</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731318669.0834644</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731318666.824914.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731318669.0834644.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>20.442</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>20.449</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.00700000000000145</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731318670.363593</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731318670.6579916</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731318670.363593.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731318670.6579916.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>20.428</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>20.402</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.0259999999999998</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731318670.6749547</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731318675.2293222</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731318670.6749547.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731318675.2293222.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>20.402</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>20.296</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.1060000000000016</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.52</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731318675.2452517</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731318676.5529642</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731318675.2452517.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731318676.5529642.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>20.296</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>20.321</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.02500000000000213</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731318679.2791758</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731318681.4779136</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731318679.2791758.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731318681.4779136.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>679.15</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>681.4</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>2.25</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731318682.0763118</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731318682.4170616</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731318682.0763118.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731318682.4170616.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>678.85</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>680.25</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>1.399999999999977</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731318682.4320223</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731318682.8618126</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731318682.4320223.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731318682.8618126.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>680.25</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>678.15</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>2.100000000000023</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731318690.1519372</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731318691.6251278</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731318690.1519372.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731318691.6251278.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>156.13</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>155.9</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.2299999999999898</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731318691.641087</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731318692.7070813</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731318691.641087.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731318692.7070813.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>155.9</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>155.79</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.1100000000000136</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731318692.7240078</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731318693.0577602</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731318692.7240078.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731318693.0577602.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>155.79</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>156.25</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.460000000000008</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731318696.9001174</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731318699.0902064</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731318696.9001174.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731318699.0902064.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>157.1</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>154.66</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>2.439999999999998</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1.55</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731318700.5842927</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731318700.8833382</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731318700.5842927.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731318700.8833382.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>154.6</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>154.56</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.03999999999999204</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731318701.150643</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731318701.668705</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731318701.150643.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731318701.668705.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>154.5</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>156.03</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>1.530000000000001</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.9900000000000001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731318702.0057411</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731318702.0057411.png</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731318702.0057411.png</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>154.86</v>
       </c>
-      <c r="J73" t="n">
-        <v>154.86</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
+      <c r="L73" t="n">
+        <v>154.54</v>
+      </c>
+      <c r="M73" t="n">
+        <v>-0.3200000000000216</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731318704.7930002</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731318705.8137913</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/FEES1731318704.7930002.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/FEES1731318705.8137913.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>0.09724000000000001</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>0.09748000000000001</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.0002400000000000041</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731318705.8297467</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731318708.675673</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/FEES1731318705.8297467.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/FEES1731318708.675673.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>0.09748000000000001</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>0.09822</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>-0.0007399999999999907</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-0.76</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731318708.8407416</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731318712.767818</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/FEES1731318708.8407416.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/FEES1731318712.767818.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>0.09820000000000001</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>0.0974</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-0.000800000000000009</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.8099999999999999</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731318715.0704722</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731318715.385503</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/FEES1731318715.0704722.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/FEES1731318715.385503.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>0.09724000000000001</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>0.09714</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-0.0001000000000000029</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731318715.4804857</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731318715.4804857.png</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731318715.4804857.png</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>0.09718</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.09718</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
+      <c r="L78" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.0001799999999999996</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731318716.3616083</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731318717.8803496</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/MXI1731318716.3616083.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/MXI1731318717.8803496.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>2939.7</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>2940.95</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>-1.25</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731318718.377554</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731318718.377554.png</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731318718.377554.png</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>2945.15</v>
       </c>
-      <c r="J80" t="n">
-        <v>2945.15</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0</v>
+      <c r="L80" t="n">
+        <v>2941.35</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3.800000000000182</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -4258,7 +4982,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4282,6 +5006,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4290,11 +5029,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6400000000000006</v>
+        <v>0.4500000000000028</v>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.05625000000000036</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -4303,11 +5051,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.350000000000023</v>
+        <v>4.030000000000001</v>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.5757142857142858</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -4316,11 +5073,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3700000000000045</v>
+        <v>0.5100000000000051</v>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.07285714285714359</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -4329,11 +5095,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2.07000000000005</v>
+        <v>-2.830000000000041</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
+      <c r="D5" t="n">
+        <v>-0.5660000000000082</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.9900000000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -4347,6 +5122,15 @@
       <c r="C6" t="n">
         <v>5</v>
       </c>
+      <c r="D6" t="n">
+        <v>-0.01140000000000114</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -4355,11 +5139,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.001399999999999998</v>
+        <v>-0.001219999999999999</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
+      <c r="D7" t="n">
+        <v>-0.0002439999999999998</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.25</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -4368,11 +5161,20 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
+      <c r="D8" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -4386,6 +5188,15 @@
       <c r="C9" t="n">
         <v>4</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -4394,11 +5205,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2.75</v>
+        <v>-3.550000000000011</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
+      <c r="D10" t="n">
+        <v>-0.8875000000000028</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.7000000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -4407,11 +5227,20 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2799999999999727</v>
+        <v>0.7299999999999898</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.2433333333333299</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -4420,11 +5249,20 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.879999999999995</v>
+        <v>-2.179999999999978</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
+      <c r="D12" t="n">
+        <v>-0.7266666666666595</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-1.35</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.45</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -4438,6 +5276,15 @@
       <c r="C13" t="n">
         <v>3</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -4446,11 +5293,20 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.05400000000000027</v>
+        <v>-0.07399999999999984</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
+      <c r="D14" t="n">
+        <v>-0.02466666666666661</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.21</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -4464,6 +5320,15 @@
       <c r="C15" t="n">
         <v>3</v>
       </c>
+      <c r="D15" t="n">
+        <v>1.916666666666667</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -4472,11 +5337,20 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.300000000000011</v>
+        <v>4.140000000000015</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
+      <c r="D16" t="n">
+        <v>1.380000000000005</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -4490,6 +5364,15 @@
       <c r="C17" t="n">
         <v>3</v>
       </c>
+      <c r="D17" t="n">
+        <v>1.666666666666742</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.3599999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -4503,6 +5386,15 @@
       <c r="C18" t="n">
         <v>2</v>
       </c>
+      <c r="D18" t="n">
+        <v>-0.0800000000000054</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -4511,11 +5403,20 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.08500000000000085</v>
+        <v>0.355000000000004</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
+      <c r="D19" t="n">
+        <v>0.177500000000002</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -4529,6 +5430,15 @@
       <c r="C20" t="n">
         <v>2</v>
       </c>
+      <c r="D20" t="n">
+        <v>-0.3700000000000045</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.16</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -4537,11 +5447,20 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-1.25</v>
+        <v>2.550000000000182</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
+      <c r="D21" t="n">
+        <v>1.275000000000091</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -4555,6 +5474,11 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
